--- a/src/main/resources/decision_table_test_case.xlsx
+++ b/src/main/resources/decision_table_test_case.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="21">
   <si>
     <t xml:space="preserve"> ID</t>
   </si>
@@ -53,16 +53,43 @@
     <t>Exception (Invalid age)</t>
   </si>
   <si>
+    <t>READ ERROR: Cannot get a NUMERIC value from a STRING cell</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>Tue</t>
   </si>
   <si>
     <t>Sat</t>
   </si>
   <si>
-    <t>READ ERROR: Cannot get a NUMERIC value from a STRING cell</t>
+    <t>Wed</t>
   </si>
   <si>
-    <t>PASS</t>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Exception (Tuổi không hợp lệ)</t>
+  </si>
+  <si>
+    <t>Exception (Ngày không hợp lệ: null)</t>
+  </si>
+  <si>
+    <t>Fun</t>
+  </si>
+  <si>
+    <t>Exception (Ngày không hợp lệ: Fun)</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
   </si>
 </sst>
 </file>
@@ -704,7 +731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,6 +745,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,13 +1279,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="45" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -1280,7 +1308,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="42.75" spans="1:7">
+    <row r="2" ht="42.75" spans="1:8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1300,11 +1328,11 @@
         <v>7</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="42.75" spans="1:7">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" spans="1:8">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1324,11 +1352,11 @@
         <v>7</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1347,14 +1375,14 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1362,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>1</v>
@@ -1373,14 +1401,14 @@
       <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1388,7 +1416,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
@@ -1399,14 +1427,14 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1425,14 +1453,14 @@
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1451,14 +1479,14 @@
       <c r="F8" s="4">
         <v>50000</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>50000.0</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1477,14 +1505,14 @@
       <c r="F9" s="4">
         <v>40000</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>40000.0</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2">
+        <v>40000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1503,14 +1531,14 @@
       <c r="F10" s="4">
         <v>20000</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2">
+        <v>20000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1529,14 +1557,14 @@
       <c r="F11" s="4">
         <v>10000</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1544,7 +1572,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3" t="b">
         <v>0</v>
@@ -1555,14 +1583,14 @@
       <c r="F12" s="4">
         <v>30000</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2">
+        <v>30000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1570,7 +1598,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3" t="b">
         <v>0</v>
@@ -1581,14 +1609,14 @@
       <c r="F13" s="4">
         <v>20000</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="H13" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2">
+        <v>20000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1596,7 +1624,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3" t="b">
         <v>1</v>
@@ -1607,14 +1635,14 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1622,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3" t="b">
         <v>1</v>
@@ -1633,14 +1661,14 @@
       <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H15" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1648,7 +1676,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3" t="b">
         <v>0</v>
@@ -1659,14 +1687,14 @@
       <c r="F16" s="4">
         <v>70000</v>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>70000.0</v>
-      </c>
-      <c r="H16" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2">
+        <v>70000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1674,7 +1702,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3" t="b">
         <v>0</v>
@@ -1685,14 +1713,14 @@
       <c r="F17" s="4">
         <v>60000</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>60000.0</v>
-      </c>
-      <c r="H17" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1700,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3" t="b">
         <v>1</v>
@@ -1711,14 +1739,14 @@
       <c r="F18" s="4">
         <v>40000</v>
       </c>
-      <c r="G18" s="2" t="n">
-        <v>40000.0</v>
-      </c>
-      <c r="H18" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2">
+        <v>40000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1726,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19" s="3" t="b">
         <v>1</v>
@@ -1737,14 +1765,14 @@
       <c r="F19" s="4">
         <v>30000</v>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="H19" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2">
+        <v>30000</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1763,14 +1791,14 @@
       <c r="F20" s="4">
         <v>100000</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="H20" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1789,14 +1817,14 @@
       <c r="F21" s="4">
         <v>90000</v>
       </c>
-      <c r="G21" s="2" t="n">
-        <v>90000.0</v>
-      </c>
-      <c r="H21" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1815,14 +1843,14 @@
       <c r="F22" s="4">
         <v>70000</v>
       </c>
-      <c r="G22" s="2" t="n">
-        <v>70000.0</v>
-      </c>
-      <c r="H22" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2">
+        <v>70000</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1841,14 +1869,14 @@
       <c r="F23" s="4">
         <v>60000</v>
       </c>
-      <c r="G23" s="2" t="n">
-        <v>60000.0</v>
-      </c>
-      <c r="H23" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1856,7 +1884,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24" s="3" t="b">
         <v>0</v>
@@ -1867,14 +1895,14 @@
       <c r="F24" s="4">
         <v>80000</v>
       </c>
-      <c r="G24" s="2" t="n">
-        <v>80000.0</v>
-      </c>
-      <c r="H24" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2">
+        <v>80000</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1882,7 +1910,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3" t="b">
         <v>0</v>
@@ -1893,14 +1921,14 @@
       <c r="F25" s="4">
         <v>70000</v>
       </c>
-      <c r="G25" s="2" t="n">
-        <v>70000.0</v>
-      </c>
-      <c r="H25" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2">
+        <v>70000</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1908,7 +1936,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3" t="b">
         <v>1</v>
@@ -1919,14 +1947,14 @@
       <c r="F26" s="4">
         <v>50000</v>
       </c>
-      <c r="G26" s="2" t="n">
-        <v>50000.0</v>
-      </c>
-      <c r="H26" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1934,7 +1962,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3" t="b">
         <v>1</v>
@@ -1945,14 +1973,14 @@
       <c r="F27" s="4">
         <v>40000</v>
       </c>
-      <c r="G27" s="2" t="n">
-        <v>40000.0</v>
-      </c>
-      <c r="H27" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="2">
+        <v>40000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1960,7 +1988,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D28" s="3" t="b">
         <v>0</v>
@@ -1971,14 +1999,14 @@
       <c r="F28" s="4">
         <v>120000</v>
       </c>
-      <c r="G28" s="2" t="n">
-        <v>120000.0</v>
-      </c>
-      <c r="H28" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="2">
+        <v>120000</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1986,7 +2014,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3" t="b">
         <v>0</v>
@@ -1997,14 +2025,14 @@
       <c r="F29" s="4">
         <v>110000</v>
       </c>
-      <c r="G29" s="2" t="n">
-        <v>110000.0</v>
-      </c>
-      <c r="H29" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="2">
+        <v>110000</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2012,7 +2040,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30" s="3" t="b">
         <v>1</v>
@@ -2023,14 +2051,14 @@
       <c r="F30" s="4">
         <v>90000</v>
       </c>
-      <c r="G30" s="2" t="n">
-        <v>90000.0</v>
-      </c>
-      <c r="H30" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2038,7 +2066,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31" s="3" t="b">
         <v>1</v>
@@ -2049,14 +2077,14 @@
       <c r="F31" s="4">
         <v>80000</v>
       </c>
-      <c r="G31" s="2" t="n">
-        <v>80000.0</v>
-      </c>
-      <c r="H31" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="2">
+        <v>80000</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2075,14 +2103,14 @@
       <c r="F32" s="4">
         <v>100000</v>
       </c>
-      <c r="G32" s="2" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="H32" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2101,14 +2129,14 @@
       <c r="F33" s="4">
         <v>90000</v>
       </c>
-      <c r="G33" s="2" t="n">
-        <v>90000.0</v>
-      </c>
-      <c r="H33" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2127,14 +2155,14 @@
       <c r="F34" s="4">
         <v>70000</v>
       </c>
-      <c r="G34" s="2" t="n">
-        <v>70000.0</v>
-      </c>
-      <c r="H34" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="2">
+        <v>70000</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2153,14 +2181,14 @@
       <c r="F35" s="4">
         <v>60000</v>
       </c>
-      <c r="G35" s="2" t="n">
-        <v>60000.0</v>
-      </c>
-      <c r="H35" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2168,7 +2196,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D36" s="3" t="b">
         <v>0</v>
@@ -2179,14 +2207,14 @@
       <c r="F36" s="4">
         <v>80000</v>
       </c>
-      <c r="G36" s="2" t="n">
-        <v>80000.0</v>
-      </c>
-      <c r="H36" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" s="2">
+        <v>80000</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2194,7 +2222,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D37" s="3" t="b">
         <v>0</v>
@@ -2205,14 +2233,14 @@
       <c r="F37" s="4">
         <v>70000</v>
       </c>
-      <c r="G37" s="2" t="n">
-        <v>70000.0</v>
-      </c>
-      <c r="H37" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="G37" s="2">
+        <v>70000</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2220,7 +2248,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3" t="b">
         <v>1</v>
@@ -2231,14 +2259,14 @@
       <c r="F38" s="4">
         <v>50000</v>
       </c>
-      <c r="G38" s="2" t="n">
-        <v>50000.0</v>
-      </c>
-      <c r="H38" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="G38" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2246,7 +2274,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D39" s="3" t="b">
         <v>1</v>
@@ -2257,11 +2285,209 @@
       <c r="F39" s="4">
         <v>40000</v>
       </c>
-      <c r="G39" s="2" t="n">
-        <v>40000.0</v>
-      </c>
-      <c r="H39" t="s" s="0">
-        <v>11</v>
+      <c r="G39" s="2">
+        <v>40000</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>121</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>30</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>30</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>10</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="5">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>15</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="5">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>25</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="5">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>20</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="5">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>8</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
